--- a/config/stroop/Stroop_run5.xlsx
+++ b/config/stroop/Stroop_run5.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="214" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="321" uniqueCount="33">
   <si>
     <t>number</t>
   </si>
@@ -505,19 +505,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -528,19 +528,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3" s="0">
         <v>3</v>
@@ -554,16 +554,16 @@
         <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G4" s="0">
         <v>6</v>
@@ -574,19 +574,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G5" s="0">
         <v>9</v>
@@ -600,16 +600,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G6" s="0">
         <v>12</v>
@@ -620,19 +620,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G7" s="0">
         <v>15</v>
@@ -643,16 +643,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>8</v>
@@ -666,19 +666,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G9" s="0">
         <v>21</v>
@@ -689,19 +689,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G10" s="0">
         <v>24</v>
@@ -715,16 +715,16 @@
         <v>17</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G11" s="0">
         <v>27</v>
@@ -735,19 +735,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G12" s="0">
         <v>30</v>
@@ -761,16 +761,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G13" s="0">
         <v>33</v>
@@ -784,16 +784,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G14" s="0">
         <v>36</v>
@@ -804,19 +804,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G15" s="0">
         <v>39</v>
@@ -830,16 +830,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G16" s="0">
         <v>42</v>
@@ -850,19 +850,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G17" s="0">
         <v>45</v>
@@ -896,16 +896,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>8</v>
@@ -919,19 +919,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G20" s="0">
         <v>54</v>
@@ -945,16 +945,16 @@
         <v>10</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G21" s="0">
         <v>57</v>
